--- a/biology/Zoologie/Astraea_heliotropium/Astraea_heliotropium.xlsx
+++ b/biology/Zoologie/Astraea_heliotropium/Astraea_heliotropium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Astraea heliotropium est une espèce de grands escargots de mer de Nouvelle-Zélande appartenant à la famille des Turbinidae, les turbans et escargots étoilés[2].
-Le premier exemplaire de cette espèce a été rapporté en Europe par le célèbre capitaine Cook[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astraea heliotropium est une espèce de grands escargots de mer de Nouvelle-Zélande appartenant à la famille des Turbinidae, les turbans et escargots étoilés.
+Le premier exemplaire de cette espèce a été rapporté en Europe par le célèbre capitaine Cook.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Coquille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La hauteur de la coquille peut atteindre 60 mm, et sa largeur jusqu'à 120 mm. Elle a la forme d'un cône aplati. En dessous, elle est concave, avec un ombilic largement ouvert. La pointe est en forme de dôme et comporte 5 verticilles convexes. La suture entre les verticilles est en zigzag, à cause des « dents » triangulaires recourbées qui arment leur périphérie fortement carénée. Les verticilles au-dessus et au-dessous possèdent de nombreuses séries de granules en spirale. L'ombilic est profond et grossièrement strié obliquement à l'intérieur. L'ouverture est transversalement ovale, oblique, nacrée à l'intérieur. Son péristome (sa « lèvre ») est continu. La columelle est légèrement dilatée, empiétant sur l'ombilic. La coquille est brunâtre ou violacé au-dessus, claire en dessous[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La hauteur de la coquille peut atteindre 60 mm, et sa largeur jusqu'à 120 mm. Elle a la forme d'un cône aplati. En dessous, elle est concave, avec un ombilic largement ouvert. La pointe est en forme de dôme et comporte 5 verticilles convexes. La suture entre les verticilles est en zigzag, à cause des « dents » triangulaires recourbées qui arment leur périphérie fortement carénée. Les verticilles au-dessus et au-dessous possèdent de nombreuses séries de granules en spirale. L'ombilic est profond et grossièrement strié obliquement à l'intérieur. L'ouverture est transversalement ovale, oblique, nacrée à l'intérieur. Son péristome (sa « lèvre ») est continu. La columelle est légèrement dilatée, empiétant sur l'ombilic. La coquille est brunâtre ou violacé au-dessus, claire en dessous.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande.
 </t>
         </is>
       </c>
